--- a/biology/Botanique/Millepertuis_à_feuilles_de_gramen/Millepertuis_à_feuilles_de_gramen.xlsx
+++ b/biology/Botanique/Millepertuis_à_feuilles_de_gramen/Millepertuis_à_feuilles_de_gramen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Millepertuis_%C3%A0_feuilles_de_gramen</t>
+          <t>Millepertuis_à_feuilles_de_gramen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypericum gramineum
-Le Millepertuis à feuilles de gramen (Hypericum gramineum) est une espèce de plantes à fleurs de la famille des Hypéricacées selon la classification phylogénétique APG III (2009)[2] ou à celle des Clusiacées selon la classification classique de Cronquist (1981)[3].
+Le Millepertuis à feuilles de gramen (Hypericum gramineum) est une espèce de plantes à fleurs de la famille des Hypéricacées selon la classification phylogénétique APG III (2009) ou à celle des Clusiacées selon la classification classique de Cronquist (1981).
 C'est une plante herbacée vivace qui mesure de 10 à 40 cm de haut et a des feuilles simples ovales ou lancéolées.
 Elle est originaire d'Australie et de Nouvelle-Calédonie.
 </t>
